--- a/INTLINE/data/566/PHSA/General Retail Price Index in the National Capital Region_historical.xlsx
+++ b/INTLINE/data/566/PHSA/General Retail Price Index in the National Capital Region_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="530">
   <si>
     <t>1979-01</t>
   </si>
@@ -5108,8 +5108,8 @@
       <c r="SX2">
         <v>118.2</v>
       </c>
-      <c r="SY2" t="s">
-        <v>529</v>
+      <c r="SY2">
+        <v>118.6</v>
       </c>
       <c r="SZ2" t="s">
         <v>529</v>
